--- a/Document/400_DUYDサウンド表.xlsx
+++ b/Document/400_DUYDサウンド表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー (2)\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7053E39B-39DC-4BC4-95AE-030E8A3A87C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A90B43-39A6-4E28-ABE5-8DF4B7FCE3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -156,6 +156,259 @@
   </si>
   <si>
     <t>SE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>break.mp3</t>
+  </si>
+  <si>
+    <t>岩を壊したときの音</t>
+    <rPh sb="0" eb="1">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>damage_enemy.mp3</t>
+  </si>
+  <si>
+    <t>敵に攻撃が当たった時の音</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>damage_player.mp3</t>
+  </si>
+  <si>
+    <t>プレイヤーが攻撃を受けたときになる音</t>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>footsteps.mp3</t>
+  </si>
+  <si>
+    <t>歩いているときの音</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>footsteps_grass.mp3</t>
+  </si>
+  <si>
+    <t>草の上を歩いているときの音</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>補足</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stairs.mp3</t>
+  </si>
+  <si>
+    <t>階段を降りた時の音</t>
+    <rPh sb="0" eb="2">
+      <t>カイダン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「繁茂した洞窟」階層以外で使用</t>
+    <rPh sb="1" eb="3">
+      <t>ハンモ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドウクツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>石を投げたときの音</t>
+    <rPh sb="0" eb="1">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>throw.mp3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pickaxe.mp3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>つるはしを振った時の音</t>
+    <rPh sb="5" eb="6">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Obtain_ore.mp3</t>
+  </si>
+  <si>
+    <t>強化鉱石を入手した時になる音</t>
+    <rPh sb="0" eb="4">
+      <t>キョウカコウセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Obtaining_oxygen.mp3</t>
+  </si>
+  <si>
+    <t>酸素鉱石を入手した時になる音</t>
+    <rPh sb="0" eb="4">
+      <t>サンソコウセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この時岩を壊したときの音はならない</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>button.mp3</t>
+  </si>
+  <si>
+    <t>ボタンを押したときになる音</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A_silver_linging.mp3</t>
+  </si>
+  <si>
+    <t>タイトルシーンに入ったら流します</t>
+    <rPh sb="8" eb="9">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナガ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -637,21 +890,21 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="5" max="5" width="5.296875" customWidth="1"/>
-    <col min="6" max="6" width="7.296875" customWidth="1"/>
-    <col min="7" max="7" width="11.796875" customWidth="1"/>
+    <col min="5" max="5" width="5.3125" customWidth="1"/>
+    <col min="6" max="6" width="7.3125" customWidth="1"/>
+    <col min="7" max="7" width="11.8125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.7">
       <c r="B1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
@@ -673,24 +926,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" customWidth="1"/>
-    <col min="7" max="7" width="13.09765625" customWidth="1"/>
-    <col min="8" max="8" width="12.8984375" customWidth="1"/>
-    <col min="9" max="9" width="11.69921875" customWidth="1"/>
-    <col min="10" max="10" width="7.09765625" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="20.4375" customWidth="1"/>
+    <col min="9" max="9" width="35.375" customWidth="1"/>
+    <col min="10" max="10" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -702,25 +953,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="11"/>
       <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="11.45" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="7" spans="1:10" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="11"/>
       <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="25.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F9" s="12" t="s">
         <v>11</v>
       </c>
@@ -728,18 +979,133 @@
         <v>12</v>
       </c>
       <c r="H9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J9" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
